--- a/Resultados/resultados.xlsx
+++ b/Resultados/resultados.xlsx
@@ -725,7 +725,7 @@
     <t xml:space="preserve">TUR</t>
   </si>
   <si>
-    <t xml:space="preserve">Türkiye</t>
+    <t xml:space="preserve">TÃ¼rkiye</t>
   </si>
   <si>
     <t xml:space="preserve">turkey</t>
